--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Qrfp</t>
+  </si>
+  <si>
+    <t>P2ry14</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Qrfp</t>
-  </si>
-  <si>
-    <t>P2ry14</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.430932</v>
+        <v>0.5328176666666667</v>
       </c>
       <c r="H2">
-        <v>1.292796</v>
+        <v>1.598453</v>
       </c>
       <c r="I2">
-        <v>0.1949684913323735</v>
+        <v>0.2001388429706536</v>
       </c>
       <c r="J2">
-        <v>0.2120482069995808</v>
+        <v>0.213328135545356</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.843770666666667</v>
+        <v>0.107352</v>
       </c>
       <c r="N2">
-        <v>5.531312000000001</v>
+        <v>0.322056</v>
       </c>
       <c r="O2">
-        <v>0.09585483956063943</v>
+        <v>0.004186491276943991</v>
       </c>
       <c r="P2">
-        <v>0.1019705832843711</v>
+        <v>0.004195990443300053</v>
       </c>
       <c r="Q2">
-        <v>0.7945397809280001</v>
+        <v>0.05719904215200001</v>
       </c>
       <c r="R2">
-        <v>7.150858028352001</v>
+        <v>0.514791379368</v>
       </c>
       <c r="S2">
-        <v>0.01868867345604458</v>
+        <v>0.0008378795202743046</v>
       </c>
       <c r="T2">
-        <v>0.02162267935215232</v>
+        <v>0.0008951228180353322</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.430932</v>
+        <v>0.5328176666666667</v>
       </c>
       <c r="H3">
-        <v>1.292796</v>
+        <v>1.598453</v>
       </c>
       <c r="I3">
-        <v>0.1949684913323735</v>
+        <v>0.2001388429706536</v>
       </c>
       <c r="J3">
-        <v>0.2120482069995808</v>
+        <v>0.213328135545356</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.50153333333333</v>
+        <v>1.843770666666667</v>
       </c>
       <c r="N3">
-        <v>31.5046</v>
+        <v>5.531312</v>
       </c>
       <c r="O3">
-        <v>0.5459587848998793</v>
+        <v>0.07190299028136603</v>
       </c>
       <c r="P3">
-        <v>0.5807921227623388</v>
+        <v>0.07206613846943047</v>
       </c>
       <c r="Q3">
-        <v>4.525446762400001</v>
+        <v>0.9823935844817779</v>
       </c>
       <c r="R3">
-        <v>40.72902086160001</v>
+        <v>8.841542260336</v>
       </c>
       <c r="S3">
-        <v>0.1064447606215853</v>
+        <v>0.01439058128104275</v>
       </c>
       <c r="T3">
-        <v>0.1231559282712344</v>
+        <v>0.01537373495563706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.430932</v>
+        <v>0.5328176666666667</v>
       </c>
       <c r="H4">
-        <v>1.292796</v>
+        <v>1.598453</v>
       </c>
       <c r="I4">
-        <v>0.1949684913323735</v>
+        <v>0.2001388429706536</v>
       </c>
       <c r="J4">
-        <v>0.2120482069995808</v>
+        <v>0.213328135545356</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.4608955</v>
+        <v>13.883856</v>
       </c>
       <c r="N4">
-        <v>6.921791000000001</v>
+        <v>41.651568</v>
       </c>
       <c r="O4">
-        <v>0.1799267061170871</v>
+        <v>0.5414397685590067</v>
       </c>
       <c r="P4">
-        <v>0.1276042764614454</v>
+        <v>0.5426682976763739</v>
       </c>
       <c r="Q4">
-        <v>1.491410619606</v>
+        <v>7.397563758256001</v>
       </c>
       <c r="R4">
-        <v>8.948463717636001</v>
+        <v>66.578073824304</v>
       </c>
       <c r="S4">
-        <v>0.03508003844205181</v>
+        <v>0.1083631288176981</v>
       </c>
       <c r="T4">
-        <v>0.0270582580291283</v>
+        <v>0.1157664161628731</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,51 +726,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.430932</v>
+        <v>0.5328176666666667</v>
       </c>
       <c r="H5">
-        <v>1.292796</v>
+        <v>1.598453</v>
       </c>
       <c r="I5">
-        <v>0.1949684913323735</v>
+        <v>0.2001388429706536</v>
       </c>
       <c r="J5">
-        <v>0.2120482069995808</v>
+        <v>0.213328135545356</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.42883</v>
+        <v>0.1741535</v>
       </c>
       <c r="N5">
-        <v>10.28649</v>
+        <v>0.348307</v>
       </c>
       <c r="O5">
-        <v>0.1782596694223942</v>
+        <v>0.006791602472234009</v>
       </c>
       <c r="P5">
-        <v>0.1896330174918447</v>
+        <v>0.00453800843124957</v>
       </c>
       <c r="Q5">
-        <v>1.47759256956</v>
+        <v>0.09279206151183336</v>
       </c>
       <c r="R5">
-        <v>13.29833312604</v>
+        <v>0.5567523690710001</v>
       </c>
       <c r="S5">
-        <v>0.03475501881269182</v>
+        <v>0.001359263460709545</v>
       </c>
       <c r="T5">
-        <v>0.0402113413470658</v>
+        <v>0.0009680848777275767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5328176666666666</v>
+        <v>0.5328176666666667</v>
       </c>
       <c r="H6">
         <v>1.598453</v>
       </c>
       <c r="I6">
-        <v>0.2410650790037302</v>
+        <v>0.2001388429706536</v>
       </c>
       <c r="J6">
-        <v>0.2621829682510627</v>
+        <v>0.213328135545356</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.843770666666667</v>
+        <v>9.633343333333334</v>
       </c>
       <c r="N6">
-        <v>5.531312000000001</v>
+        <v>28.90003</v>
       </c>
       <c r="O6">
-        <v>0.09585483956063943</v>
+        <v>0.3756791474104492</v>
       </c>
       <c r="P6">
-        <v>0.1019705832843711</v>
+        <v>0.3765315649796458</v>
       </c>
       <c r="Q6">
-        <v>0.9823935844817778</v>
+        <v>5.132815517065556</v>
       </c>
       <c r="R6">
-        <v>8.841542260336</v>
+        <v>46.19533965359</v>
       </c>
       <c r="S6">
-        <v>0.02310725447157543</v>
+        <v>0.07518798989092894</v>
       </c>
       <c r="T6">
-        <v>0.02673495019978862</v>
+        <v>0.08032477673108292</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8624390000000001</v>
+      </c>
+      <c r="H7">
+        <v>2.587317</v>
+      </c>
+      <c r="I7">
+        <v>0.323952365680006</v>
+      </c>
+      <c r="J7">
+        <v>0.3453010577569712</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G7">
-        <v>0.5328176666666666</v>
-      </c>
-      <c r="H7">
-        <v>1.598453</v>
-      </c>
-      <c r="I7">
-        <v>0.2410650790037302</v>
-      </c>
-      <c r="J7">
-        <v>0.2621829682510627</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>10.50153333333333</v>
+        <v>0.107352</v>
       </c>
       <c r="N7">
-        <v>31.5046</v>
+        <v>0.322056</v>
       </c>
       <c r="O7">
-        <v>0.5459587848998793</v>
+        <v>0.004186491276943991</v>
       </c>
       <c r="P7">
-        <v>0.5807921227623388</v>
+        <v>0.004195990443300053</v>
       </c>
       <c r="Q7">
-        <v>5.595402487088889</v>
+        <v>0.09258455152800001</v>
       </c>
       <c r="R7">
-        <v>50.3586223838</v>
+        <v>0.8332609637520001</v>
       </c>
       <c r="S7">
-        <v>0.13161159761467</v>
+        <v>0.001356223753064715</v>
       </c>
       <c r="T7">
-        <v>0.1522738026826656</v>
+        <v>0.001448879938409651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5328176666666666</v>
+        <v>0.8624390000000001</v>
       </c>
       <c r="H8">
-        <v>1.598453</v>
+        <v>2.587317</v>
       </c>
       <c r="I8">
-        <v>0.2410650790037302</v>
+        <v>0.323952365680006</v>
       </c>
       <c r="J8">
-        <v>0.2621829682510627</v>
+        <v>0.3453010577569712</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.4608955</v>
+        <v>1.843770666666667</v>
       </c>
       <c r="N8">
-        <v>6.921791000000001</v>
+        <v>5.531312</v>
       </c>
       <c r="O8">
-        <v>0.1799267061170871</v>
+        <v>0.07190299028136603</v>
       </c>
       <c r="P8">
-        <v>0.1276042764614454</v>
+        <v>0.07206613846943047</v>
       </c>
       <c r="Q8">
-        <v>1.844026264887167</v>
+        <v>1.590139729989333</v>
       </c>
       <c r="R8">
-        <v>11.064157589323</v>
+        <v>14.311257569904</v>
       </c>
       <c r="S8">
-        <v>0.04337404562499654</v>
+        <v>0.023293143801115</v>
       </c>
       <c r="T8">
-        <v>0.03345566796419096</v>
+        <v>0.02488451384195469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,25 +965,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5328176666666666</v>
+        <v>0.8624390000000001</v>
       </c>
       <c r="H9">
-        <v>1.598453</v>
+        <v>2.587317</v>
       </c>
       <c r="I9">
-        <v>0.2410650790037302</v>
+        <v>0.323952365680006</v>
       </c>
       <c r="J9">
-        <v>0.2621829682510627</v>
+        <v>0.3453010577569712</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,42 +992,42 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.42883</v>
+        <v>13.883856</v>
       </c>
       <c r="N9">
-        <v>10.28649</v>
+        <v>41.651568</v>
       </c>
       <c r="O9">
-        <v>0.1782596694223942</v>
+        <v>0.5414397685590067</v>
       </c>
       <c r="P9">
-        <v>0.1896330174918447</v>
+        <v>0.5426682976763739</v>
       </c>
       <c r="Q9">
-        <v>1.826941199996666</v>
+        <v>11.973978884784</v>
       </c>
       <c r="R9">
-        <v>16.44247079997</v>
+        <v>107.765809963056</v>
       </c>
       <c r="S9">
-        <v>0.04297218129248828</v>
+        <v>0.1754006938979251</v>
       </c>
       <c r="T9">
-        <v>0.04971854740441753</v>
+        <v>0.1873839371988268</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7124286666666667</v>
+        <v>0.8624390000000001</v>
       </c>
       <c r="H10">
-        <v>2.137286</v>
+        <v>2.587317</v>
       </c>
       <c r="I10">
-        <v>0.322327286722579</v>
+        <v>0.323952365680006</v>
       </c>
       <c r="J10">
-        <v>0.3505639436889548</v>
+        <v>0.3453010577569712</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.843770666666667</v>
+        <v>0.1741535</v>
       </c>
       <c r="N10">
-        <v>5.531312000000001</v>
+        <v>0.348307</v>
       </c>
       <c r="O10">
-        <v>0.09585483956063943</v>
+        <v>0.006791602472234009</v>
       </c>
       <c r="P10">
-        <v>0.1019705832843711</v>
+        <v>0.00453800843124957</v>
       </c>
       <c r="Q10">
-        <v>1.313555077692445</v>
+        <v>0.1501967703865</v>
       </c>
       <c r="R10">
-        <v>11.821995699232</v>
+        <v>0.9011806223190001</v>
       </c>
       <c r="S10">
-        <v>0.03089663035480904</v>
+        <v>0.002200155687638384</v>
       </c>
       <c r="T10">
-        <v>0.03574720981643215</v>
+        <v>0.00156697911142053</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7124286666666667</v>
+        <v>0.8624390000000001</v>
       </c>
       <c r="H11">
-        <v>2.137286</v>
+        <v>2.587317</v>
       </c>
       <c r="I11">
-        <v>0.322327286722579</v>
+        <v>0.323952365680006</v>
       </c>
       <c r="J11">
-        <v>0.3505639436889548</v>
+        <v>0.3453010577569712</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.50153333333333</v>
+        <v>9.633343333333334</v>
       </c>
       <c r="N11">
-        <v>31.5046</v>
+        <v>28.90003</v>
       </c>
       <c r="O11">
-        <v>0.5459587848998793</v>
+        <v>0.3756791474104492</v>
       </c>
       <c r="P11">
-        <v>0.5807921227623388</v>
+        <v>0.3765315649796458</v>
       </c>
       <c r="Q11">
-        <v>7.481593390622224</v>
+        <v>8.308170991056668</v>
       </c>
       <c r="R11">
-        <v>67.3343405156</v>
+        <v>74.77353891951</v>
       </c>
       <c r="S11">
-        <v>0.1759774137991342</v>
+        <v>0.1217021485402627</v>
       </c>
       <c r="T11">
-        <v>0.2036047770190451</v>
+        <v>0.1300167476663594</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7124286666666667</v>
+        <v>0.4937895</v>
       </c>
       <c r="H12">
-        <v>2.137286</v>
+        <v>0.987579</v>
       </c>
       <c r="I12">
-        <v>0.322327286722579</v>
+        <v>0.1854789459578559</v>
       </c>
       <c r="J12">
-        <v>0.3505639436889548</v>
+        <v>0.1318014272385532</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>3.4608955</v>
+        <v>0.107352</v>
       </c>
       <c r="N12">
-        <v>6.921791000000001</v>
+        <v>0.322056</v>
       </c>
       <c r="O12">
-        <v>0.1799267061170871</v>
+        <v>0.004186491276943991</v>
       </c>
       <c r="P12">
-        <v>0.1276042764614454</v>
+        <v>0.004195990443300053</v>
       </c>
       <c r="Q12">
-        <v>2.465641166537667</v>
+        <v>0.053009290404</v>
       </c>
       <c r="R12">
-        <v>14.793846999226</v>
+        <v>0.318055742424</v>
       </c>
       <c r="S12">
-        <v>0.05799528699165154</v>
+        <v>0.0007765059893093297</v>
       </c>
       <c r="T12">
-        <v>0.04473345838789995</v>
+        <v>0.0005530375291062766</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,25 +1213,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7124286666666667</v>
+        <v>0.4937895</v>
       </c>
       <c r="H13">
-        <v>2.137286</v>
+        <v>0.987579</v>
       </c>
       <c r="I13">
-        <v>0.322327286722579</v>
+        <v>0.1854789459578559</v>
       </c>
       <c r="J13">
-        <v>0.3505639436889548</v>
+        <v>0.1318014272385532</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.42883</v>
+        <v>1.843770666666667</v>
       </c>
       <c r="N13">
-        <v>10.28649</v>
+        <v>5.531312</v>
       </c>
       <c r="O13">
-        <v>0.1782596694223942</v>
+        <v>0.07190299028136603</v>
       </c>
       <c r="P13">
-        <v>0.1896330174918447</v>
+        <v>0.07206613846943047</v>
       </c>
       <c r="Q13">
-        <v>2.442796785126667</v>
+        <v>0.910434595608</v>
       </c>
       <c r="R13">
-        <v>21.98517106614</v>
+        <v>5.462607573648</v>
       </c>
       <c r="S13">
-        <v>0.05745795557698419</v>
+        <v>0.01333649084860573</v>
       </c>
       <c r="T13">
-        <v>0.06647849846557762</v>
+        <v>0.009498419905842142</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5340865</v>
+        <v>0.4937895</v>
       </c>
       <c r="H14">
-        <v>1.068173</v>
+        <v>0.987579</v>
       </c>
       <c r="I14">
-        <v>0.2416391429413172</v>
+        <v>0.1854789459578559</v>
       </c>
       <c r="J14">
-        <v>0.1752048810604018</v>
+        <v>0.1318014272385532</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.843770666666667</v>
+        <v>13.883856</v>
       </c>
       <c r="N14">
-        <v>5.531312000000001</v>
+        <v>41.651568</v>
       </c>
       <c r="O14">
-        <v>0.09585483956063943</v>
+        <v>0.5414397685590067</v>
       </c>
       <c r="P14">
-        <v>0.1019705832843711</v>
+        <v>0.5426682976763739</v>
       </c>
       <c r="Q14">
-        <v>0.9847330221626668</v>
+        <v>6.855702312311999</v>
       </c>
       <c r="R14">
-        <v>5.908398132976001</v>
+        <v>41.134213873872</v>
       </c>
       <c r="S14">
-        <v>0.02316228127821038</v>
+        <v>0.10042567757199</v>
       </c>
       <c r="T14">
-        <v>0.01786574391599804</v>
+        <v>0.07152445615086214</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1346,51 +1346,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5340865</v>
+        <v>0.4937895</v>
       </c>
       <c r="H15">
-        <v>1.068173</v>
+        <v>0.987579</v>
       </c>
       <c r="I15">
-        <v>0.2416391429413172</v>
+        <v>0.1854789459578559</v>
       </c>
       <c r="J15">
-        <v>0.1752048810604018</v>
+        <v>0.1318014272385532</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.50153333333333</v>
+        <v>0.1741535</v>
       </c>
       <c r="N15">
-        <v>31.5046</v>
+        <v>0.348307</v>
       </c>
       <c r="O15">
-        <v>0.5459587848998793</v>
+        <v>0.006791602472234009</v>
       </c>
       <c r="P15">
-        <v>0.5807921227623388</v>
+        <v>0.00453800843124957</v>
       </c>
       <c r="Q15">
-        <v>5.608727182633334</v>
+        <v>0.08599516968825001</v>
       </c>
       <c r="R15">
-        <v>33.65236309580001</v>
+        <v>0.343980678753</v>
       </c>
       <c r="S15">
-        <v>0.1319250128644898</v>
+        <v>0.001259699267914732</v>
       </c>
       <c r="T15">
-        <v>0.1017576147893939</v>
+        <v>0.0005981159880592814</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5340865</v>
+        <v>0.4937895</v>
       </c>
       <c r="H16">
-        <v>1.068173</v>
+        <v>0.987579</v>
       </c>
       <c r="I16">
-        <v>0.2416391429413172</v>
+        <v>0.1854789459578559</v>
       </c>
       <c r="J16">
-        <v>0.1752048810604018</v>
+        <v>0.1318014272385532</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.4608955</v>
+        <v>9.633343333333334</v>
       </c>
       <c r="N16">
-        <v>6.921791000000001</v>
+        <v>28.90003</v>
       </c>
       <c r="O16">
-        <v>0.1799267061170871</v>
+        <v>0.3756791474104492</v>
       </c>
       <c r="P16">
-        <v>0.1276042764614454</v>
+        <v>0.3765315649796458</v>
       </c>
       <c r="Q16">
-        <v>1.84841756446075</v>
+        <v>4.756843787895001</v>
       </c>
       <c r="R16">
-        <v>7.393670257843001</v>
+        <v>28.54106272737</v>
       </c>
       <c r="S16">
-        <v>0.04347733505838718</v>
+        <v>0.0696805722800361</v>
       </c>
       <c r="T16">
-        <v>0.02235689208022617</v>
+        <v>0.04962739766468337</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,49 +1467,297 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.5340865</v>
+        <v>0.773194</v>
       </c>
       <c r="H17">
-        <v>1.068173</v>
+        <v>2.319582</v>
       </c>
       <c r="I17">
-        <v>0.2416391429413172</v>
+        <v>0.2904298453914845</v>
       </c>
       <c r="J17">
-        <v>0.1752048810604018</v>
+        <v>0.3095693794591195</v>
       </c>
       <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.107352</v>
+      </c>
+      <c r="N17">
+        <v>0.322056</v>
+      </c>
+      <c r="O17">
+        <v>0.004186491276943991</v>
+      </c>
+      <c r="P17">
+        <v>0.004195990443300053</v>
+      </c>
+      <c r="Q17">
+        <v>0.08300392228800001</v>
+      </c>
+      <c r="R17">
+        <v>0.7470353005920001</v>
+      </c>
+      <c r="S17">
+        <v>0.001215882014295642</v>
+      </c>
+      <c r="T17">
+        <v>0.001298950157748793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.773194</v>
+      </c>
+      <c r="H18">
+        <v>2.319582</v>
+      </c>
+      <c r="I18">
+        <v>0.2904298453914845</v>
+      </c>
+      <c r="J18">
+        <v>0.3095693794591195</v>
+      </c>
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.42883</v>
-      </c>
-      <c r="N17">
-        <v>10.28649</v>
-      </c>
-      <c r="O17">
-        <v>0.1782596694223942</v>
-      </c>
-      <c r="P17">
-        <v>0.1896330174918447</v>
-      </c>
-      <c r="Q17">
-        <v>1.831291813795</v>
-      </c>
-      <c r="R17">
-        <v>10.98775088277</v>
-      </c>
-      <c r="S17">
-        <v>0.04307451374022986</v>
-      </c>
-      <c r="T17">
-        <v>0.03322463027478374</v>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.843770666666667</v>
+      </c>
+      <c r="N18">
+        <v>5.531312</v>
+      </c>
+      <c r="O18">
+        <v>0.07190299028136603</v>
+      </c>
+      <c r="P18">
+        <v>0.07206613846943047</v>
+      </c>
+      <c r="Q18">
+        <v>1.425592416842667</v>
+      </c>
+      <c r="R18">
+        <v>12.830331751584</v>
+      </c>
+      <c r="S18">
+        <v>0.02088277435060255</v>
+      </c>
+      <c r="T18">
+        <v>0.02230946976599657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.773194</v>
+      </c>
+      <c r="H19">
+        <v>2.319582</v>
+      </c>
+      <c r="I19">
+        <v>0.2904298453914845</v>
+      </c>
+      <c r="J19">
+        <v>0.3095693794591195</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>13.883856</v>
+      </c>
+      <c r="N19">
+        <v>41.651568</v>
+      </c>
+      <c r="O19">
+        <v>0.5414397685590067</v>
+      </c>
+      <c r="P19">
+        <v>0.5426682976763739</v>
+      </c>
+      <c r="Q19">
+        <v>10.734914156064</v>
+      </c>
+      <c r="R19">
+        <v>96.614227404576</v>
+      </c>
+      <c r="S19">
+        <v>0.1572502682713935</v>
+      </c>
+      <c r="T19">
+        <v>0.1679934881638118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.773194</v>
+      </c>
+      <c r="H20">
+        <v>2.319582</v>
+      </c>
+      <c r="I20">
+        <v>0.2904298453914845</v>
+      </c>
+      <c r="J20">
+        <v>0.3095693794591195</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1741535</v>
+      </c>
+      <c r="N20">
+        <v>0.348307</v>
+      </c>
+      <c r="O20">
+        <v>0.006791602472234009</v>
+      </c>
+      <c r="P20">
+        <v>0.00453800843124957</v>
+      </c>
+      <c r="Q20">
+        <v>0.134654441279</v>
+      </c>
+      <c r="R20">
+        <v>0.8079266476740001</v>
+      </c>
+      <c r="S20">
+        <v>0.001972484055971347</v>
+      </c>
+      <c r="T20">
+        <v>0.001404828454042182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.773194</v>
+      </c>
+      <c r="H21">
+        <v>2.319582</v>
+      </c>
+      <c r="I21">
+        <v>0.2904298453914845</v>
+      </c>
+      <c r="J21">
+        <v>0.3095693794591195</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.633343333333334</v>
+      </c>
+      <c r="N21">
+        <v>28.90003</v>
+      </c>
+      <c r="O21">
+        <v>0.3756791474104492</v>
+      </c>
+      <c r="P21">
+        <v>0.3765315649796458</v>
+      </c>
+      <c r="Q21">
+        <v>7.448443265273334</v>
+      </c>
+      <c r="R21">
+        <v>67.03598938746001</v>
+      </c>
+      <c r="S21">
+        <v>0.1091084366992215</v>
+      </c>
+      <c r="T21">
+        <v>0.1165626429175201</v>
       </c>
     </row>
   </sheetData>
